--- a/data/ContractRolls_1-4sd_V3.xlsx
+++ b/data/ContractRolls_1-4sd_V3.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hoteicapital-my.sharepoint.com/personal/jiashang_hoteicapital_com/Documents/Desktop/Notebooks/Streamlit_v1/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="11_E8212FA8EA37073FE12D4CB7958623D5433E8739" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80EC07F3-81D1-42F3-BBC9-B7DC0A71B428}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="11_E8212FA8EA37073FE12D4CB7958623D5433E8739" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{470DCEFF-B06A-45BA-B9E8-D7DA03F36A90}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="scenarios_Boxes_75_2" sheetId="4" r:id="rId1"/>
-    <sheet name="scenarios_Boxes_75_1" sheetId="3" r:id="rId2"/>
-    <sheet name="scenarios_Boxes_75" sheetId="2" r:id="rId3"/>
-    <sheet name="scenarios_Boxes_50" sheetId="1" r:id="rId4"/>
-    <sheet name="scenarios_Boxes_50_1" sheetId="5" r:id="rId5"/>
+    <sheet name="scenarios_Outrights" sheetId="6" r:id="rId1"/>
+    <sheet name="scenarios_Boxes_75_2" sheetId="4" r:id="rId2"/>
+    <sheet name="scenarios_Boxes_75_1" sheetId="3" r:id="rId3"/>
+    <sheet name="scenarios_Boxes_75" sheetId="2" r:id="rId4"/>
+    <sheet name="scenarios_Boxes_50" sheetId="1" r:id="rId5"/>
+    <sheet name="scenarios_Boxes_50_1" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="59">
   <si>
     <t>scenario</t>
   </si>
@@ -208,6 +209,12 @@
   </si>
   <si>
     <t>label</t>
+  </si>
+  <si>
+    <t>0.5 EW</t>
+  </si>
+  <si>
+    <t>S0.5-Brt</t>
   </si>
 </sst>
 </file>
@@ -595,6 +602,525 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5FEA496-E2DC-4112-8DFD-099AF2A8F1E1}">
+  <dimension ref="A1:W7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W1" sqref="W1:W7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2">
+        <v>12</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>9</v>
+      </c>
+      <c r="G2">
+        <v>1.8</v>
+      </c>
+      <c r="H2">
+        <v>38</v>
+      </c>
+      <c r="I2">
+        <v>-4.2699999999999996</v>
+      </c>
+      <c r="J2">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="K2">
+        <v>3.26</v>
+      </c>
+      <c r="L2">
+        <v>0.6</v>
+      </c>
+      <c r="M2">
+        <v>0.77</v>
+      </c>
+      <c r="N2">
+        <v>1.32</v>
+      </c>
+      <c r="O2">
+        <v>0.76</v>
+      </c>
+      <c r="P2">
+        <v>2.67</v>
+      </c>
+      <c r="Q2">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="R2">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="S2">
+        <v>2.62</v>
+      </c>
+      <c r="T2">
+        <v>-1.1399999999999999</v>
+      </c>
+      <c r="U2">
+        <v>1.29</v>
+      </c>
+      <c r="V2">
+        <v>0.92</v>
+      </c>
+      <c r="W2" t="str">
+        <f>_xlfn.CONCAT("'",A2,"': ['",B2,"', ",D2,", 'Outright'],")</f>
+        <v>'EU0.5-Brt': ['FO', 12, 'Outright'],</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>13</v>
+      </c>
+      <c r="G3">
+        <v>1.3</v>
+      </c>
+      <c r="H3">
+        <v>38</v>
+      </c>
+      <c r="I3">
+        <v>-1.1200000000000001</v>
+      </c>
+      <c r="J3">
+        <v>2.86</v>
+      </c>
+      <c r="K3">
+        <v>1.65</v>
+      </c>
+      <c r="L3">
+        <v>0.8</v>
+      </c>
+      <c r="M3">
+        <v>1.47</v>
+      </c>
+      <c r="N3">
+        <v>1.73</v>
+      </c>
+      <c r="O3">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="P3">
+        <v>4.29</v>
+      </c>
+      <c r="Q3">
+        <v>0.74</v>
+      </c>
+      <c r="R3">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="S3">
+        <v>-0.21</v>
+      </c>
+      <c r="T3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="U3">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="V3">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="W3" t="str">
+        <f t="shared" ref="W3:W7" si="0">_xlfn.CONCAT("'",A3,"': ['",B3,"', ",D3,", 'Outright'],")</f>
+        <v>'HOGO': ['Dist', 6, 'Outright'],</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>11</v>
+      </c>
+      <c r="G4">
+        <v>1.83</v>
+      </c>
+      <c r="H4">
+        <v>14</v>
+      </c>
+      <c r="I4">
+        <v>-1.19</v>
+      </c>
+      <c r="J4">
+        <v>1.97</v>
+      </c>
+      <c r="K4">
+        <v>1.36</v>
+      </c>
+      <c r="L4">
+        <v>0.67</v>
+      </c>
+      <c r="M4">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="N4">
+        <v>1.45</v>
+      </c>
+      <c r="O4">
+        <v>0.69</v>
+      </c>
+      <c r="P4">
+        <v>5.37</v>
+      </c>
+      <c r="Q4">
+        <v>0.4</v>
+      </c>
+      <c r="R4">
+        <v>1.21</v>
+      </c>
+      <c r="S4">
+        <v>-0.72</v>
+      </c>
+      <c r="T4">
+        <v>0.63</v>
+      </c>
+      <c r="U4">
+        <v>0.7</v>
+      </c>
+      <c r="V4">
+        <v>0.2</v>
+      </c>
+      <c r="W4" t="str">
+        <f t="shared" si="0"/>
+        <v>'0.5 EW': ['FO', 3, 'Outright'],</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>18</v>
+      </c>
+      <c r="G5">
+        <v>1.64</v>
+      </c>
+      <c r="H5">
+        <v>14</v>
+      </c>
+      <c r="I5">
+        <v>-2.4700000000000002</v>
+      </c>
+      <c r="J5">
+        <v>2.95</v>
+      </c>
+      <c r="K5">
+        <v>2.04</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.83</v>
+      </c>
+      <c r="N5">
+        <v>1.44</v>
+      </c>
+      <c r="O5">
+        <v>0.69</v>
+      </c>
+      <c r="P5">
+        <v>-8.59</v>
+      </c>
+      <c r="Q5">
+        <v>0.96</v>
+      </c>
+      <c r="R5">
+        <v>2.89</v>
+      </c>
+      <c r="S5">
+        <v>0.47</v>
+      </c>
+      <c r="T5">
+        <v>-0.86</v>
+      </c>
+      <c r="U5">
+        <v>0.74</v>
+      </c>
+      <c r="V5">
+        <v>0.12</v>
+      </c>
+      <c r="W5" t="str">
+        <f t="shared" si="0"/>
+        <v>'NWE Propane-Naph': ['Lights', 1, 'Outright'],</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>1.67</v>
+      </c>
+      <c r="H6">
+        <v>12</v>
+      </c>
+      <c r="I6">
+        <v>-1.88</v>
+      </c>
+      <c r="J6">
+        <v>3.74</v>
+      </c>
+      <c r="K6">
+        <v>1.92</v>
+      </c>
+      <c r="L6">
+        <v>0.67</v>
+      </c>
+      <c r="M6">
+        <v>1.02</v>
+      </c>
+      <c r="N6">
+        <v>1.95</v>
+      </c>
+      <c r="O6">
+        <v>0.51</v>
+      </c>
+      <c r="P6">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="Q6">
+        <v>0.32</v>
+      </c>
+      <c r="R6">
+        <v>0.95</v>
+      </c>
+      <c r="S6">
+        <v>0.26</v>
+      </c>
+      <c r="T6">
+        <v>0.05</v>
+      </c>
+      <c r="U6">
+        <v>-0.84</v>
+      </c>
+      <c r="V6">
+        <v>-0.18</v>
+      </c>
+      <c r="W6" t="str">
+        <f t="shared" si="0"/>
+        <v>'S0.5-Brt': ['FO', 1, 'Outright'],</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>7</v>
+      </c>
+      <c r="G7">
+        <v>1.17</v>
+      </c>
+      <c r="H7">
+        <v>16</v>
+      </c>
+      <c r="I7">
+        <v>-1.89</v>
+      </c>
+      <c r="J7">
+        <v>3.61</v>
+      </c>
+      <c r="K7">
+        <v>1.81</v>
+      </c>
+      <c r="L7">
+        <v>0.67</v>
+      </c>
+      <c r="M7">
+        <v>0.96</v>
+      </c>
+      <c r="N7">
+        <v>1.99</v>
+      </c>
+      <c r="O7">
+        <v>0.5</v>
+      </c>
+      <c r="P7">
+        <v>-2.25</v>
+      </c>
+      <c r="Q7">
+        <v>0.96</v>
+      </c>
+      <c r="R7">
+        <v>2.87</v>
+      </c>
+      <c r="S7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="T7">
+        <v>-0.23</v>
+      </c>
+      <c r="U7">
+        <v>-0.93</v>
+      </c>
+      <c r="V7">
+        <v>-0.37</v>
+      </c>
+      <c r="W7" t="str">
+        <f t="shared" si="0"/>
+        <v>'92-S0.5': ['IP', 3, 'Outright'],</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C74F41D-952F-44D2-BB57-9A74A9ECCE54}">
   <dimension ref="A1:V12"/>
   <sheetViews>
@@ -1448,7 +1974,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E81F0659-F4BA-49AC-A995-DB6A48EE0F0F}">
   <dimension ref="A1:V19"/>
   <sheetViews>
@@ -2778,7 +3304,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{559A6E51-5728-4CA3-B13C-5179830BD858}">
   <dimension ref="A1:U19"/>
   <sheetViews>
@@ -4050,12 +4576,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5604,7 +6130,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83BE3FD0-FFBA-459C-894B-D6206E75CF0C}">
   <dimension ref="A1:V21"/>
   <sheetViews>

--- a/data/ContractRolls_1-4sd_V3.xlsx
+++ b/data/ContractRolls_1-4sd_V3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hoteicapital-my.sharepoint.com/personal/jiashang_hoteicapital_com/Documents/Desktop/Notebooks/Streamlit_v1/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="11_E8212FA8EA37073FE12D4CB7958623D5433E8739" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{470DCEFF-B06A-45BA-B9E8-D7DA03F36A90}"/>
+  <xr:revisionPtr revIDLastSave="63" documentId="11_E8212FA8EA37073FE12D4CB7958623D5433E8739" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33A3AA95-B838-482C-8B44-7B0082FEBD24}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1245" yWindow="3150" windowWidth="36780" windowHeight="11595" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="scenarios_Outrights" sheetId="6" r:id="rId1"/>
@@ -19,6 +19,8 @@
     <sheet name="scenarios_Boxes_75" sheetId="2" r:id="rId4"/>
     <sheet name="scenarios_Boxes_50" sheetId="1" r:id="rId5"/>
     <sheet name="scenarios_Boxes_50_1" sheetId="5" r:id="rId6"/>
+    <sheet name="scenarios_Boxes_50_new" sheetId="7" r:id="rId7"/>
+    <sheet name="scenarios_Outrights_50_new" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="66">
   <si>
     <t>scenario</t>
   </si>
@@ -216,6 +218,27 @@
   <si>
     <t>S0.5-Brt</t>
   </si>
+  <si>
+    <t>contract_type</t>
+  </si>
+  <si>
+    <t>propn_years_w_trades</t>
+  </si>
+  <si>
+    <t>Box</t>
+  </si>
+  <si>
+    <t>1m_1sd_0sd</t>
+  </si>
+  <si>
+    <t>Wti-Brt</t>
+  </si>
+  <si>
+    <t>Crude</t>
+  </si>
+  <si>
+    <t>Outright</t>
+  </si>
 </sst>
 </file>
 
@@ -238,7 +261,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -248,6 +271,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -290,13 +331,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -606,7 +664,7 @@
   <dimension ref="A1:W7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="W1" sqref="W1:W7"/>
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4580,8 +4638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6135,7 +6193,7 @@
   <dimension ref="A1:V21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7577,4 +7635,1351 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCE0A224-4C0F-4C61-9488-2C6FF8841F23}">
+  <dimension ref="A1:W12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="8">
+        <v>1</v>
+      </c>
+      <c r="F2" s="8">
+        <v>1</v>
+      </c>
+      <c r="G2" s="8">
+        <v>246</v>
+      </c>
+      <c r="H2" s="8">
+        <v>1</v>
+      </c>
+      <c r="I2" s="8">
+        <v>7</v>
+      </c>
+      <c r="J2" s="8">
+        <v>-4.22</v>
+      </c>
+      <c r="K2" s="8">
+        <v>4.43</v>
+      </c>
+      <c r="L2" s="8">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="M2" s="8">
+        <v>1.19</v>
+      </c>
+      <c r="N2" s="8">
+        <v>0.88</v>
+      </c>
+      <c r="O2" s="9">
+        <v>1.136363636363636</v>
+      </c>
+      <c r="P2" s="8">
+        <v>-0.93</v>
+      </c>
+      <c r="Q2" s="8">
+        <v>0.35</v>
+      </c>
+      <c r="R2" s="8">
+        <v>0.35</v>
+      </c>
+      <c r="S2" s="9">
+        <v>2.2190266528373339</v>
+      </c>
+      <c r="T2" s="9">
+        <v>0.13932430128220319</v>
+      </c>
+      <c r="U2" s="9">
+        <v>1.6040075767997259</v>
+      </c>
+      <c r="V2" s="9">
+        <v>1.320786176973088</v>
+      </c>
+      <c r="W2" t="str">
+        <f>_xlfn.CONCAT("'",A2,"': ['",B2,"', ",E2,", 'Box'],")</f>
+        <v>'SKO-NWE Jet': ['Dist', 1, 'Box'],</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="8">
+        <v>1</v>
+      </c>
+      <c r="F3" s="8">
+        <v>1</v>
+      </c>
+      <c r="G3" s="8">
+        <v>224</v>
+      </c>
+      <c r="H3" s="8">
+        <v>1</v>
+      </c>
+      <c r="I3" s="8">
+        <v>7</v>
+      </c>
+      <c r="J3" s="8">
+        <v>-4.75</v>
+      </c>
+      <c r="K3" s="8">
+        <v>2.09</v>
+      </c>
+      <c r="L3" s="8">
+        <v>4.12</v>
+      </c>
+      <c r="M3" s="8">
+        <v>0.87</v>
+      </c>
+      <c r="N3" s="8">
+        <v>0.51</v>
+      </c>
+      <c r="O3" s="9">
+        <v>1.9607843137254899</v>
+      </c>
+      <c r="P3" s="8">
+        <v>-3.33</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>0.35</v>
+      </c>
+      <c r="R3" s="8">
+        <v>0.35</v>
+      </c>
+      <c r="S3" s="9">
+        <v>1.577159439206701</v>
+      </c>
+      <c r="T3" s="9">
+        <v>-0.86255831467970789</v>
+      </c>
+      <c r="U3" s="9">
+        <v>3</v>
+      </c>
+      <c r="V3" s="9">
+        <v>1.2382003748423309</v>
+      </c>
+      <c r="W3" t="str">
+        <f t="shared" ref="W3:W12" si="0">_xlfn.CONCAT("'",A3,"': ['",B3,"', ",E3,", 'Box'],")</f>
+        <v>'Rbob-Ebob': ['Lights', 1, 'Box'],</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="8">
+        <v>1</v>
+      </c>
+      <c r="F4" s="8">
+        <v>3</v>
+      </c>
+      <c r="G4" s="8">
+        <v>18</v>
+      </c>
+      <c r="H4" s="8">
+        <v>0.73</v>
+      </c>
+      <c r="I4" s="8">
+        <v>7</v>
+      </c>
+      <c r="J4" s="8">
+        <v>-0.32</v>
+      </c>
+      <c r="K4" s="8">
+        <v>1.17</v>
+      </c>
+      <c r="L4" s="8">
+        <v>0.71</v>
+      </c>
+      <c r="M4" s="8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="N4" s="8">
+        <v>1.64</v>
+      </c>
+      <c r="O4" s="9">
+        <v>0.6097560975609756</v>
+      </c>
+      <c r="P4" s="8">
+        <v>-0.82</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>0.12</v>
+      </c>
+      <c r="R4" s="8">
+        <v>0.36</v>
+      </c>
+      <c r="S4" s="9">
+        <v>-0.85480411466047901</v>
+      </c>
+      <c r="T4" s="9">
+        <v>3</v>
+      </c>
+      <c r="U4" s="9">
+        <v>-0.61638399233800212</v>
+      </c>
+      <c r="V4" s="9">
+        <v>0.5096039643338397</v>
+      </c>
+      <c r="W4" t="str">
+        <f t="shared" si="0"/>
+        <v>'HOGO': ['Dist', 1, 'Box'],</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="8">
+        <v>12</v>
+      </c>
+      <c r="F5" s="8">
+        <v>2</v>
+      </c>
+      <c r="G5" s="8">
+        <v>8</v>
+      </c>
+      <c r="H5" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="I5" s="8">
+        <v>38</v>
+      </c>
+      <c r="J5" s="8">
+        <v>-3.97</v>
+      </c>
+      <c r="K5" s="8">
+        <v>6.67</v>
+      </c>
+      <c r="L5" s="8">
+        <v>4.16</v>
+      </c>
+      <c r="M5" s="8">
+        <v>1.05</v>
+      </c>
+      <c r="N5" s="8">
+        <v>1.61</v>
+      </c>
+      <c r="O5" s="9">
+        <v>0.6211180124223602</v>
+      </c>
+      <c r="P5" s="8">
+        <v>-0.92</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>0.87</v>
+      </c>
+      <c r="R5" s="8">
+        <v>1.74</v>
+      </c>
+      <c r="S5" s="9">
+        <v>1.6056868709236181</v>
+      </c>
+      <c r="T5" s="9">
+        <v>-0.29899934320113258</v>
+      </c>
+      <c r="U5" s="9">
+        <v>-0.56847753808396828</v>
+      </c>
+      <c r="V5" s="9">
+        <v>0.24606999654617229</v>
+      </c>
+      <c r="W5" t="str">
+        <f t="shared" si="0"/>
+        <v>'S10ppm-S0.5': ['IP', 12, 'Box'],</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="8">
+        <v>12</v>
+      </c>
+      <c r="F6" s="8">
+        <v>3</v>
+      </c>
+      <c r="G6" s="8">
+        <v>7</v>
+      </c>
+      <c r="H6" s="8">
+        <v>0.6</v>
+      </c>
+      <c r="I6" s="8">
+        <v>34</v>
+      </c>
+      <c r="J6" s="8">
+        <v>-1.59</v>
+      </c>
+      <c r="K6" s="8">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="L6" s="8">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="M6" s="8">
+        <v>1.28</v>
+      </c>
+      <c r="N6" s="8">
+        <v>1.25</v>
+      </c>
+      <c r="O6" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="P6" s="8">
+        <v>-1.21</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>1.05</v>
+      </c>
+      <c r="R6" s="8">
+        <v>3.16</v>
+      </c>
+      <c r="S6" s="9">
+        <v>8.6601131997783784E-2</v>
+      </c>
+      <c r="T6" s="9">
+        <v>0.42110378702149098</v>
+      </c>
+      <c r="U6" s="9">
+        <v>0.18576167769154359</v>
+      </c>
+      <c r="V6" s="9">
+        <v>0.23115553223693949</v>
+      </c>
+      <c r="W6" t="str">
+        <f t="shared" si="0"/>
+        <v>'FEI Propane-MOPJ Naph': ['Lights', 12, 'Box'],</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="8">
+        <v>6</v>
+      </c>
+      <c r="F7" s="8">
+        <v>3</v>
+      </c>
+      <c r="G7" s="8">
+        <v>8</v>
+      </c>
+      <c r="H7" s="8">
+        <v>0.83</v>
+      </c>
+      <c r="I7" s="8">
+        <v>38</v>
+      </c>
+      <c r="J7" s="8">
+        <v>-0.94</v>
+      </c>
+      <c r="K7" s="8">
+        <v>0.97</v>
+      </c>
+      <c r="L7" s="8">
+        <v>0.97</v>
+      </c>
+      <c r="M7" s="8">
+        <v>1.03</v>
+      </c>
+      <c r="N7" s="8">
+        <v>1</v>
+      </c>
+      <c r="O7" s="9">
+        <v>1</v>
+      </c>
+      <c r="P7" s="8">
+        <v>0.54</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>0.51</v>
+      </c>
+      <c r="R7" s="8">
+        <v>1.54</v>
+      </c>
+      <c r="S7" s="9">
+        <v>-0.66937580850051814</v>
+      </c>
+      <c r="T7" s="9">
+        <v>-0.36161700669875219</v>
+      </c>
+      <c r="U7" s="9">
+        <v>1.0290430231072201</v>
+      </c>
+      <c r="V7" s="9">
+        <v>-6.4993069735025388E-4</v>
+      </c>
+      <c r="W7" t="str">
+        <f t="shared" si="0"/>
+        <v>'EU0.5-Brt': ['FO', 6, 'Box'],</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="8">
+        <v>6</v>
+      </c>
+      <c r="F8" s="8">
+        <v>3</v>
+      </c>
+      <c r="G8" s="8">
+        <v>13</v>
+      </c>
+      <c r="H8" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="I8" s="8">
+        <v>37</v>
+      </c>
+      <c r="J8" s="8">
+        <v>-2.64</v>
+      </c>
+      <c r="K8" s="8">
+        <v>9.06</v>
+      </c>
+      <c r="L8" s="8">
+        <v>3.27</v>
+      </c>
+      <c r="M8" s="8">
+        <v>1.24</v>
+      </c>
+      <c r="N8" s="8">
+        <v>2.77</v>
+      </c>
+      <c r="O8" s="9">
+        <v>0.36101083032490983</v>
+      </c>
+      <c r="P8" s="8">
+        <v>-1.75</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>0.34</v>
+      </c>
+      <c r="R8" s="8">
+        <v>1.01</v>
+      </c>
+      <c r="S8" s="9">
+        <v>0.97095151522221279</v>
+      </c>
+      <c r="T8" s="9">
+        <v>0.295868460026252</v>
+      </c>
+      <c r="U8" s="9">
+        <v>-1.6651952104410599</v>
+      </c>
+      <c r="V8" s="9">
+        <v>-0.1327917450641983</v>
+      </c>
+      <c r="W8" t="str">
+        <f t="shared" si="0"/>
+        <v>'NWE Propane-Naph': ['Lights', 6, 'Box'],</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="8">
+        <v>12</v>
+      </c>
+      <c r="F9" s="8">
+        <v>2</v>
+      </c>
+      <c r="G9" s="8">
+        <v>20</v>
+      </c>
+      <c r="H9" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="I9" s="8">
+        <v>43</v>
+      </c>
+      <c r="J9" s="8">
+        <v>-0.93</v>
+      </c>
+      <c r="K9" s="8">
+        <v>0.79</v>
+      </c>
+      <c r="L9" s="8">
+        <v>0.72</v>
+      </c>
+      <c r="M9" s="8">
+        <v>0.77</v>
+      </c>
+      <c r="N9" s="8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O9" s="9">
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="P9" s="8">
+        <v>0.04</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>0.18</v>
+      </c>
+      <c r="R9" s="8">
+        <v>0.35</v>
+      </c>
+      <c r="S9" s="9">
+        <v>-0.8476722567312498</v>
+      </c>
+      <c r="T9" s="9">
+        <v>-1.175646632167805</v>
+      </c>
+      <c r="U9" s="9">
+        <v>0.64573332064554845</v>
+      </c>
+      <c r="V9" s="9">
+        <v>-0.45919518941783549</v>
+      </c>
+      <c r="W9" t="str">
+        <f t="shared" si="0"/>
+        <v>'Wti-Brt': ['Crude', 12, 'Box'],</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="8">
+        <v>1</v>
+      </c>
+      <c r="F10" s="8">
+        <v>3</v>
+      </c>
+      <c r="G10" s="8">
+        <v>21</v>
+      </c>
+      <c r="H10" s="8">
+        <v>1</v>
+      </c>
+      <c r="I10" s="8">
+        <v>13</v>
+      </c>
+      <c r="J10" s="8">
+        <v>-0.51</v>
+      </c>
+      <c r="K10" s="8">
+        <v>0.73</v>
+      </c>
+      <c r="L10" s="8">
+        <v>0.51</v>
+      </c>
+      <c r="M10" s="8">
+        <v>1</v>
+      </c>
+      <c r="N10" s="8">
+        <v>1.42</v>
+      </c>
+      <c r="O10" s="9">
+        <v>0.70422535211267612</v>
+      </c>
+      <c r="P10" s="8">
+        <v>-0.31</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>0.27</v>
+      </c>
+      <c r="R10" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="S10" s="9">
+        <v>-0.99744127324506426</v>
+      </c>
+      <c r="T10" s="9">
+        <v>-0.45554350194518151</v>
+      </c>
+      <c r="U10" s="9">
+        <v>-0.21806319194413221</v>
+      </c>
+      <c r="V10" s="9">
+        <v>-0.55701598904479255</v>
+      </c>
+      <c r="W10" t="str">
+        <f t="shared" si="0"/>
+        <v>'GO EW': ['Dist', 1, 'Box'],</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="8">
+        <v>12</v>
+      </c>
+      <c r="F11" s="8">
+        <v>3</v>
+      </c>
+      <c r="G11" s="8">
+        <v>10</v>
+      </c>
+      <c r="H11" s="8">
+        <v>0.78</v>
+      </c>
+      <c r="I11" s="8">
+        <v>37</v>
+      </c>
+      <c r="J11" s="8">
+        <v>-0.51</v>
+      </c>
+      <c r="K11" s="8">
+        <v>1.08</v>
+      </c>
+      <c r="L11" s="8">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="M11" s="8">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="N11" s="8">
+        <v>1.89</v>
+      </c>
+      <c r="O11" s="9">
+        <v>0.52910052910052918</v>
+      </c>
+      <c r="P11" s="8">
+        <v>-0.55000000000000004</v>
+      </c>
+      <c r="Q11" s="8">
+        <v>0.39</v>
+      </c>
+      <c r="R11" s="8">
+        <v>1.18</v>
+      </c>
+      <c r="S11" s="9">
+        <v>-0.95465012566968865</v>
+      </c>
+      <c r="T11" s="9">
+        <v>-1.7219857461845539E-2</v>
+      </c>
+      <c r="U11" s="9">
+        <v>-0.95646067377095934</v>
+      </c>
+      <c r="V11" s="9">
+        <v>-0.64277688563416446</v>
+      </c>
+      <c r="W11" t="str">
+        <f t="shared" si="0"/>
+        <v>'380 EW': ['FO', 12, 'Box'],</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="8">
+        <v>1</v>
+      </c>
+      <c r="F12" s="8">
+        <v>3</v>
+      </c>
+      <c r="G12" s="8">
+        <v>20</v>
+      </c>
+      <c r="H12" s="8">
+        <v>0.82</v>
+      </c>
+      <c r="I12" s="8">
+        <v>14</v>
+      </c>
+      <c r="J12" s="8">
+        <v>-0.75</v>
+      </c>
+      <c r="K12" s="8">
+        <v>0.82</v>
+      </c>
+      <c r="L12" s="8">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="M12" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="N12" s="8">
+        <v>1.47</v>
+      </c>
+      <c r="O12" s="9">
+        <v>0.68027210884353739</v>
+      </c>
+      <c r="P12" s="8">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="Q12" s="8">
+        <v>0.33</v>
+      </c>
+      <c r="R12" s="8">
+        <v>1</v>
+      </c>
+      <c r="S12" s="9">
+        <v>-0.96178198359891798</v>
+      </c>
+      <c r="T12" s="9">
+        <v>-1.2382642956654251</v>
+      </c>
+      <c r="U12" s="9">
+        <v>-0.31905980799947359</v>
+      </c>
+      <c r="V12" s="9">
+        <v>-0.83970202908793878</v>
+      </c>
+      <c r="W12" t="str">
+        <f t="shared" si="0"/>
+        <v>'MOPJ Naph-Brt': ['Lights', 1, 'Box'],</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43C9B7B4-BBFD-46D5-8EC2-A3C4E25C9FF6}">
+  <dimension ref="A1:W6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="8">
+        <v>1</v>
+      </c>
+      <c r="F2" s="8">
+        <v>3</v>
+      </c>
+      <c r="G2" s="8">
+        <v>8</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0.67</v>
+      </c>
+      <c r="I2" s="8">
+        <v>6</v>
+      </c>
+      <c r="J2" s="8">
+        <v>-1.29</v>
+      </c>
+      <c r="K2" s="8">
+        <v>2.11</v>
+      </c>
+      <c r="L2" s="8">
+        <v>2.08</v>
+      </c>
+      <c r="M2" s="8">
+        <v>1.62</v>
+      </c>
+      <c r="N2" s="8">
+        <v>1.01</v>
+      </c>
+      <c r="O2" s="9">
+        <v>0.99009900990099009</v>
+      </c>
+      <c r="P2" s="8">
+        <v>6.68</v>
+      </c>
+      <c r="Q2" s="8">
+        <v>1.41</v>
+      </c>
+      <c r="R2" s="8">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="S2" s="9">
+        <v>0.45829984492964287</v>
+      </c>
+      <c r="T2" s="9">
+        <v>0.35797505236463573</v>
+      </c>
+      <c r="U2" s="9">
+        <v>1.4113687340813379</v>
+      </c>
+      <c r="V2" s="9">
+        <v>0.74254787712520542</v>
+      </c>
+      <c r="W2" t="str">
+        <f>_xlfn.CONCAT("'",A2,"': ['",B2,"', ",E2,", 'Outright'],")</f>
+        <v>'S10ppm-S0.5': ['IP', 1, 'Outright'],</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="8">
+        <v>1</v>
+      </c>
+      <c r="F3" s="8">
+        <v>3</v>
+      </c>
+      <c r="G3" s="8">
+        <v>32</v>
+      </c>
+      <c r="H3" s="8">
+        <v>0.91</v>
+      </c>
+      <c r="I3" s="8">
+        <v>11</v>
+      </c>
+      <c r="J3" s="8">
+        <v>-1.3</v>
+      </c>
+      <c r="K3" s="8">
+        <v>2.09</v>
+      </c>
+      <c r="L3" s="8">
+        <v>2.04</v>
+      </c>
+      <c r="M3" s="8">
+        <v>1.56</v>
+      </c>
+      <c r="N3" s="8">
+        <v>1.03</v>
+      </c>
+      <c r="O3" s="9">
+        <v>0.970873786407767</v>
+      </c>
+      <c r="P3" s="8">
+        <v>6.26</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>0.83</v>
+      </c>
+      <c r="R3" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="S3" s="9">
+        <v>0.38151662483671839</v>
+      </c>
+      <c r="T3" s="9">
+        <v>0.22878104850371461</v>
+      </c>
+      <c r="U3" s="9">
+        <v>1.31424213496863</v>
+      </c>
+      <c r="V3" s="9">
+        <v>0.64151326943635412</v>
+      </c>
+      <c r="W3" t="str">
+        <f t="shared" ref="W3:W6" si="0">_xlfn.CONCAT("'",A3,"': ['",B3,"', ",E3,", 'Outright'],")</f>
+        <v>'HOGO': ['Dist', 1, 'Outright'],</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="8">
+        <v>1</v>
+      </c>
+      <c r="F4" s="8">
+        <v>3</v>
+      </c>
+      <c r="G4" s="8">
+        <v>8</v>
+      </c>
+      <c r="H4" s="8">
+        <v>0.83</v>
+      </c>
+      <c r="I4" s="8">
+        <v>11</v>
+      </c>
+      <c r="J4" s="8">
+        <v>-1.07</v>
+      </c>
+      <c r="K4" s="8">
+        <v>3.67</v>
+      </c>
+      <c r="L4" s="8">
+        <v>2.21</v>
+      </c>
+      <c r="M4" s="8">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="N4" s="8">
+        <v>1.66</v>
+      </c>
+      <c r="O4" s="9">
+        <v>0.60240963855421692</v>
+      </c>
+      <c r="P4" s="8">
+        <v>11.96</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>0.67</v>
+      </c>
+      <c r="R4" s="8">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="S4" s="9">
+        <v>0.70784531023164698</v>
+      </c>
+      <c r="T4" s="9">
+        <v>1.3269300813215421</v>
+      </c>
+      <c r="U4" s="9">
+        <v>-0.54725349802584011</v>
+      </c>
+      <c r="V4" s="9">
+        <v>0.49584063117578309</v>
+      </c>
+      <c r="W4" t="str">
+        <f t="shared" si="0"/>
+        <v>'S0.5-S380': ['FO', 1, 'Outright'],</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="8">
+        <v>1</v>
+      </c>
+      <c r="F5" s="8">
+        <v>3</v>
+      </c>
+      <c r="G5" s="8">
+        <v>20</v>
+      </c>
+      <c r="H5" s="8">
+        <v>1</v>
+      </c>
+      <c r="I5" s="8">
+        <v>15</v>
+      </c>
+      <c r="J5" s="8">
+        <v>-3.27</v>
+      </c>
+      <c r="K5" s="8">
+        <v>3.14</v>
+      </c>
+      <c r="L5" s="8">
+        <v>2.52</v>
+      </c>
+      <c r="M5" s="8">
+        <v>0.77</v>
+      </c>
+      <c r="N5" s="8">
+        <v>1.25</v>
+      </c>
+      <c r="O5" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="P5" s="8">
+        <v>-7.11</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>1.23</v>
+      </c>
+      <c r="R5" s="8">
+        <v>3.68</v>
+      </c>
+      <c r="S5" s="9">
+        <v>1.3029152659518111</v>
+      </c>
+      <c r="T5" s="9">
+        <v>-1.4722733356650779</v>
+      </c>
+      <c r="U5" s="9">
+        <v>0.45098092205487678</v>
+      </c>
+      <c r="V5" s="9">
+        <v>9.3874284113869944E-2</v>
+      </c>
+      <c r="W5" t="str">
+        <f t="shared" si="0"/>
+        <v>'NWE Propane-Naph': ['Lights', 1, 'Outright'],</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="8">
+        <v>1</v>
+      </c>
+      <c r="F6" s="8">
+        <v>3</v>
+      </c>
+      <c r="G6" s="8">
+        <v>10</v>
+      </c>
+      <c r="H6" s="8">
+        <v>0.67</v>
+      </c>
+      <c r="I6" s="8">
+        <v>7</v>
+      </c>
+      <c r="J6" s="8">
+        <v>-1.02</v>
+      </c>
+      <c r="K6" s="8">
+        <v>3.47</v>
+      </c>
+      <c r="L6" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="M6" s="8">
+        <v>1.48</v>
+      </c>
+      <c r="N6" s="8">
+        <v>2.31</v>
+      </c>
+      <c r="O6" s="9">
+        <v>0.4329004329004329</v>
+      </c>
+      <c r="P6" s="8">
+        <v>10.24</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>0.49</v>
+      </c>
+      <c r="R6" s="8">
+        <v>1.47</v>
+      </c>
+      <c r="S6" s="9">
+        <v>-0.65505684641776085</v>
+      </c>
+      <c r="T6" s="9">
+        <v>5.652237668915315E-2</v>
+      </c>
+      <c r="U6" s="9">
+        <v>-1.403620794315126</v>
+      </c>
+      <c r="V6" s="9">
+        <v>-0.66738508801457785</v>
+      </c>
+      <c r="W6" t="str">
+        <f t="shared" si="0"/>
+        <v>'S0.5-Brt': ['FO', 1, 'Outright'],</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>